--- a/Football Database.xlsx
+++ b/Football Database.xlsx
@@ -413,407 +413,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Players</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Goals</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Kylian Mbappé</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>55</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Germán Cano</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Erling Haaland</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Robert Lewandowski</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>42</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Aleksandar Mitrovic</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>38</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Christopher Nkunku</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>37</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Bérgson</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Lionel Messi</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Mehdi Taremi</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Ricardo Gomes</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>35</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Amahl Pellegrino</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Boris Kopitovic</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Harry Kane</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>M.  Brunori Sandri</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Paul Mullin</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>34</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr"/>
-      <c r="B17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Players</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Assists</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Lionel Messi</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>29</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Dusan Tadic</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>28</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Kevin De Bruyne</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>25</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Cody Gakpo</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>23</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Edmilson Junior</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>19</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Kady</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Neymar</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Ousmane Dembélé</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>18</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Vinícius Júnior</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Andrew Robertson</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Ciprian Deac</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Ivan Perisic</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Kylian Mbappé</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Mirko Ivanic</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Rafael Leão</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr"/>
-      <c r="B34" t="inlineStr"/>
-    </row>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>